--- a/PolicyEffectiveness/0-DayLag_MississippiPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_MississippiPolicy.xlsx
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4041,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4937,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -5945,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -6617,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -7065,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -7289,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -7345,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -7457,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -7569,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -7681,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -7737,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -7905,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -8017,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -8129,7 +8129,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -8185,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -8241,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -8409,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -8577,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -9081,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -9137,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -9193,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -9361,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -9585,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -9753,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -9809,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -9921,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -10145,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -10201,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -10257,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -10481,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
